--- a/Excel/ServerInfoConfig@s.xlsx
+++ b/Excel/ServerInfoConfig@s.xlsx
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:5">
